--- a/Data_Pfalz/AL_DWA_Sprint.xlsx
+++ b/Data_Pfalz/AL_DWA_Sprint.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20394"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DWA Sprint\Dokumente\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Envimaster\DWA_Sprint\Data_Pfalz\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B24E242-216B-49CF-9A66-C95B4D7FB132}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14100"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -320,9 +321,6 @@
     <t>II_58_0066</t>
   </si>
   <si>
-    <t>III_58_0067</t>
-  </si>
-  <si>
     <t>Heddesheim</t>
   </si>
   <si>
@@ -405,12 +403,15 @@
   </si>
   <si>
     <t>Unterflockenbach</t>
+  </si>
+  <si>
+    <t>II_58_0067</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -464,7 +465,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -741,14 +742,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H45" sqref="H45"/>
+      <selection activeCell="E33" sqref="E33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
@@ -1692,10 +1693,10 @@
         <v>3</v>
       </c>
       <c r="E33" t="s">
+        <v>126</v>
+      </c>
+      <c r="F33" t="s">
         <v>98</v>
-      </c>
-      <c r="F33" t="s">
-        <v>99</v>
       </c>
       <c r="G33">
         <v>999</v>
@@ -1721,10 +1722,10 @@
         <v>4</v>
       </c>
       <c r="E34" t="s">
+        <v>99</v>
+      </c>
+      <c r="F34" t="s">
         <v>100</v>
-      </c>
-      <c r="F34" t="s">
-        <v>101</v>
       </c>
       <c r="G34">
         <v>999</v>
@@ -1733,7 +1734,7 @@
         <v>84</v>
       </c>
       <c r="I34" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
@@ -1750,13 +1751,13 @@
         <v>5</v>
       </c>
       <c r="E35" t="s">
+        <v>102</v>
+      </c>
+      <c r="F35" t="s">
         <v>103</v>
       </c>
-      <c r="F35" t="s">
+      <c r="G35" t="s">
         <v>104</v>
-      </c>
-      <c r="G35" t="s">
-        <v>105</v>
       </c>
       <c r="H35" t="s">
         <v>84</v>
@@ -1779,10 +1780,10 @@
         <v>6</v>
       </c>
       <c r="E36" t="s">
+        <v>105</v>
+      </c>
+      <c r="F36" t="s">
         <v>106</v>
-      </c>
-      <c r="F36" t="s">
-        <v>107</v>
       </c>
       <c r="G36">
         <v>999</v>
@@ -1808,10 +1809,10 @@
         <v>7</v>
       </c>
       <c r="E37" t="s">
+        <v>107</v>
+      </c>
+      <c r="F37" t="s">
         <v>108</v>
-      </c>
-      <c r="F37" t="s">
-        <v>109</v>
       </c>
       <c r="G37">
         <v>999</v>
@@ -1837,10 +1838,10 @@
         <v>8</v>
       </c>
       <c r="E38" t="s">
+        <v>109</v>
+      </c>
+      <c r="F38" t="s">
         <v>110</v>
-      </c>
-      <c r="F38" t="s">
-        <v>111</v>
       </c>
       <c r="G38">
         <v>999</v>
@@ -1866,19 +1867,19 @@
         <v>1</v>
       </c>
       <c r="E39" t="s">
+        <v>111</v>
+      </c>
+      <c r="F39" t="s">
         <v>112</v>
       </c>
-      <c r="F39" t="s">
+      <c r="G39" t="s">
         <v>113</v>
-      </c>
-      <c r="G39" t="s">
-        <v>114</v>
       </c>
       <c r="H39" t="s">
         <v>84</v>
       </c>
       <c r="I39" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.25">
@@ -1895,10 +1896,10 @@
         <v>2</v>
       </c>
       <c r="E40" t="s">
+        <v>114</v>
+      </c>
+      <c r="F40" t="s">
         <v>115</v>
-      </c>
-      <c r="F40" t="s">
-        <v>116</v>
       </c>
       <c r="G40">
         <v>999</v>
@@ -1924,16 +1925,16 @@
         <v>3</v>
       </c>
       <c r="E41" t="s">
+        <v>116</v>
+      </c>
+      <c r="F41" t="s">
         <v>117</v>
       </c>
-      <c r="F41" t="s">
+      <c r="G41">
+        <v>999</v>
+      </c>
+      <c r="H41" t="s">
         <v>118</v>
-      </c>
-      <c r="G41">
-        <v>999</v>
-      </c>
-      <c r="H41" t="s">
-        <v>119</v>
       </c>
       <c r="I41" t="s">
         <v>89</v>
@@ -1953,10 +1954,10 @@
         <v>4</v>
       </c>
       <c r="E42" t="s">
+        <v>119</v>
+      </c>
+      <c r="F42" t="s">
         <v>120</v>
-      </c>
-      <c r="F42" t="s">
-        <v>121</v>
       </c>
       <c r="G42">
         <v>999</v>
@@ -1982,13 +1983,13 @@
         <v>5</v>
       </c>
       <c r="E43" t="s">
+        <v>121</v>
+      </c>
+      <c r="F43" t="s">
         <v>122</v>
       </c>
-      <c r="F43" t="s">
+      <c r="G43" t="s">
         <v>123</v>
-      </c>
-      <c r="G43" t="s">
-        <v>124</v>
       </c>
       <c r="H43" t="s">
         <v>84</v>
@@ -2011,10 +2012,10 @@
         <v>6</v>
       </c>
       <c r="E44" t="s">
+        <v>124</v>
+      </c>
+      <c r="F44" t="s">
         <v>125</v>
-      </c>
-      <c r="F44" t="s">
-        <v>126</v>
       </c>
       <c r="G44">
         <v>999</v>
